--- a/target/classes/TestDataAssignment.xlsx
+++ b/target/classes/TestDataAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hei_n\eclipse-workspace2\ShareMay2021\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85139C88-E024-42E3-BDE8-6317619B70FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AFBFCB-3057-447F-857C-B2EFBAB046D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"fisher2001@gmail.com"</t>
+      <t>"fisher2033@gmail.com"</t>
     </r>
     <r>
       <rPr>
